--- a/MM-GSI.xlsx
+++ b/MM-GSI.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiocruzbr-my.sharepoint.com/personal/misael_araujo_fiocruz_br/Documents/Doutorado/4 Disciplinas/Artigos/Constructos de Maturidade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{518ED22D-F390-456F-846E-9F2FFCA974F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B0CDEE7-8AC8-4928-8AAD-60C9E2393EEE}"/>
+  <xr:revisionPtr revIDLastSave="164" documentId="8_{7845B4AC-3FFC-48B9-BED5-1FE41B485592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E69E1AD-DE07-44BA-B3BE-E704499784ED}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Auto-avaliação" sheetId="7" r:id="rId1"/>
+    <sheet name="Autoavaliação" sheetId="7" r:id="rId1"/>
     <sheet name="Resultado" sheetId="8" r:id="rId2"/>
     <sheet name="Detalhamento" sheetId="3" r:id="rId3"/>
     <sheet name="Análise de gaps" sheetId="12" r:id="rId4"/>
@@ -22,7 +22,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="126" r:id="rId7"/>
+    <pivotCache cacheId="14" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="340">
   <si>
     <t>GOV-01</t>
   </si>
@@ -1081,6 +1081,9 @@
   </si>
   <si>
     <t>RESULTADO DA AVALIAÇÃO DE MATURIDADE DOS PROCESSOS DE GESTÃO DE SEGURANÇA DA INFORMAÇÃO</t>
+  </si>
+  <si>
+    <t>(vazio)</t>
   </si>
 </sst>
 </file>
@@ -1713,6 +1716,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1740,18 +1749,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="46">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2192,7 +2266,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Auto-avaliação'!$B$3:$B$4</c:f>
+              <c:f>Autoavaliação!$B$3:$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2206,7 +2280,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Auto-avaliação'!$C$3:$C$4</c:f>
+              <c:f>Autoavaliação!$C$3:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5649,7 +5723,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Cogetic" refreshedDate="45500.496517361113" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="124" xr:uid="{B8E7DB8F-8CB0-4990-9DE6-9321083FDC6F}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Cogetic" refreshedDate="45559.856598148152" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="124" xr:uid="{B8E7DB8F-8CB0-4990-9DE6-9321083FDC6F}">
   <cacheSource type="worksheet">
     <worksheetSource name="Tab_Avaliação[[Variável]:[Resposta]]"/>
   </cacheSource>
@@ -5816,8 +5890,8 @@
     <cacheField name="Resposta" numFmtId="0">
       <sharedItems containsBlank="1" count="3">
         <s v="Sim"/>
-        <s v="Não"/>
-        <m u="1"/>
+        <m/>
+        <s v="Não" u="1"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -5878,14 +5952,14 @@
     <x v="6"/>
     <s v="Existe um responsável designado pela gestão de incidentes"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="0"/>
     <x v="7"/>
     <s v="São estabelecidas normatizações internas para o tratamento de dados pessoais"/>
     <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="0"/>
@@ -6032,7 +6106,7 @@
     <x v="28"/>
     <s v="As decisões da gestão da segurança são documentadas de forma a permitir a rastreabilidade"/>
     <x v="3"/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="0"/>
@@ -6046,14 +6120,14 @@
     <x v="30"/>
     <s v="A Política de Segurança da Informação é revisada periodicamente"/>
     <x v="3"/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="0"/>
     <x v="31"/>
     <s v="É realizada a análise crítica dos processos e políticas a fim de oportunizar a implementação de melhorias identificadas"/>
     <x v="3"/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="1"/>
@@ -6207,7 +6281,7 @@
     <x v="53"/>
     <s v="Existe o trabalho colaborativo, incluindo a troca de informações, entre a Equipe de Tratamento de Incidentes e outras instâncias fora da organização"/>
     <x v="2"/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="2"/>
@@ -6235,7 +6309,7 @@
     <x v="57"/>
     <s v="Os incidentes de segurança são registrados"/>
     <x v="3"/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="2"/>
@@ -6291,14 +6365,14 @@
     <x v="65"/>
     <s v="São adotados instrumentos para garantia de sigilo durante as contratações"/>
     <x v="3"/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="3"/>
     <x v="66"/>
     <s v="São implementadas medidas de segurança, técnicas e administrativas para proteção dos dados pessoais "/>
     <x v="3"/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="3"/>
@@ -6312,7 +6386,7 @@
     <x v="68"/>
     <s v="São utilizados mecanismos que possibilitem a identificação de indícios anomalias (de violação, interceptação ou irregularidades) no tráfego de informações criptografadas"/>
     <x v="3"/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="3"/>
@@ -6326,7 +6400,7 @@
     <x v="70"/>
     <s v="São realizadas verificações regulares das operações criptográficas a fim de garantir que estão sendo executadas adequadamente"/>
     <x v="3"/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="4"/>
@@ -6382,7 +6456,7 @@
     <x v="78"/>
     <s v="São adotados mecanismos que impeçam a instalação de aplicativos ou recursos sem permissão do setor responsável"/>
     <x v="3"/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="5"/>
@@ -6410,14 +6484,14 @@
     <x v="82"/>
     <s v="Existem mecanismos de autenticação, autorização e registro de acessos"/>
     <x v="3"/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="5"/>
     <x v="83"/>
     <s v="O controle de acesso é realizado através de um serviço de diretório ou identidade"/>
     <x v="3"/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="5"/>
@@ -6431,14 +6505,14 @@
     <x v="85"/>
     <s v="Instalações e documentos sensíveis possuem acesso restrito às pessoas autorizadas de acordo com a classificação do sigilo atribuído"/>
     <x v="3"/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="5"/>
     <x v="86"/>
     <s v="É realizado o controle e registro do acesso (autorizado ou não) e das transações nos sistemas de informação utilizados para tratamento de informações classificadas"/>
     <x v="3"/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="6"/>
@@ -6473,14 +6547,14 @@
     <x v="91"/>
     <s v="São mantidos registros das conexões com a Internet "/>
     <x v="3"/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="6"/>
     <x v="92"/>
     <s v="Os logs são armazenados de forma centralizada a fim de facilitar sua consulta e correlação"/>
     <x v="3"/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="7"/>
@@ -6508,35 +6582,35 @@
     <x v="96"/>
     <s v="É realizada a varredura em ativos corporativos a fim de identificar eventuais vulnerabilidades"/>
     <x v="3"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="7"/>
     <x v="97"/>
     <s v="É realizada a gestão de patches de atualização nos ativos de software (ex. sistemas operacionais, aplicações, etc.) da organização"/>
     <x v="3"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="7"/>
     <x v="98"/>
     <s v="É realizada a gestão de patches de atualização nos ativos de hardware (roteadores, switches, firewall, etc.) da organização"/>
     <x v="3"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="8"/>
     <x v="99"/>
     <s v="Trabalhadores no período de ambientação, recebem orientações/instruções sobre segurança da informação"/>
     <x v="4"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="8"/>
     <x v="100"/>
     <s v="São realizadas atividades de educação em segurança da informação (ex: sensibilização, conscientização, capacitação e especialização) e compartilhamento de experiências para os trabalhadores de acordo com suas funções e as atribuições na organização"/>
     <x v="4"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="8"/>
@@ -6564,7 +6638,7 @@
     <x v="104"/>
     <s v="Existe um processo para desativação/exclusão de contas após um período de inatividade"/>
     <x v="2"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="9"/>
@@ -6592,14 +6666,14 @@
     <x v="108"/>
     <s v="O gerenciamento de eventos considera a abordagem de riscos da organização"/>
     <x v="2"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="10"/>
     <x v="109"/>
     <s v="Há mecanismos de monitoramento, detecção e resposta a eventos anômalos no ambiente"/>
     <x v="3"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="10"/>
@@ -6613,21 +6687,21 @@
     <x v="111"/>
     <s v="Os procedimentos de detecção e alerta são regularmente testados a fim de garantir que estão adequadamente configurados e respondendo conforme planejado"/>
     <x v="3"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="11"/>
     <x v="112"/>
     <s v="Há um processo de desenvolvimento seguro de aplicações"/>
     <x v="2"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="11"/>
     <x v="113"/>
     <s v="Existe uma arquitetura de rede projetada considerado com foco na segurança e de forma a evitar que atacantes explorem vulnerabilidades em equipamentos e serviços"/>
     <x v="2"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="11"/>
@@ -6641,56 +6715,56 @@
     <x v="115"/>
     <s v="Existe procedimento que oriente a correção de componentes de sistemas informação"/>
     <x v="2"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="12"/>
     <x v="116"/>
     <s v="Existe um responsável designado pela gestão de continuidade de negócios"/>
     <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="12"/>
     <x v="117"/>
     <s v="Há um processo de gestão de continuidade de negócios instituído"/>
     <x v="2"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="12"/>
     <x v="118"/>
     <s v="Existem planos estabelecidos para a restauração de ativos corporativos a um estado confiável anterior a de um incidente/desastre"/>
     <x v="2"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="13"/>
     <x v="119"/>
     <s v="O gestor de segurança da informação coordena o processo de gestão de mudanças"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="13"/>
     <x v="120"/>
     <s v="Há um processo de gestão de mudanças instituído"/>
     <x v="2"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="14"/>
     <x v="121"/>
     <s v="São utilizadas soluções de segurança técnica para garantia da segurança e resiliência dos sistemas, ativos e serviços"/>
     <x v="3"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="14"/>
     <x v="122"/>
     <s v="Há uma solução antimalware implementada de forma centralizada que permita a análise de comportamento e a automação de ações para controle e contenção de ações maliciosas no ambiente"/>
     <x v="3"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="14"/>
@@ -6703,8 +6777,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{70117F30-CFA3-4255-BD30-D8714BABAC9B}" name="Análise de gaps" cacheId="126" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showDrill="0" showDataTips="0" useAutoFormatting="1" itemPrintTitles="1" mergeItem="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Variável" colHeaderCaption="Dimensão">
-  <location ref="A8:H37" firstHeaderRow="1" firstDataRow="2" firstDataCol="2" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{70117F30-CFA3-4255-BD30-D8714BABAC9B}" name="Análise de gaps" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showDrill="0" showDataTips="0" useAutoFormatting="1" itemPrintTitles="1" mergeItem="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Variável" colHeaderCaption="Dimensão">
+  <location ref="A8:H38" firstHeaderRow="1" firstDataRow="2" firstDataCol="2" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" outline="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0">
       <items count="15">
@@ -6871,9 +6945,9 @@
     </pivotField>
     <pivotField name="Todas as respostas?" axis="axisPage" outline="0" showAll="0" includeNewItemsInFilter="1">
       <items count="4">
+        <item m="1" x="2"/>
+        <item x="0"/>
         <item x="1"/>
-        <item x="0"/>
-        <item m="1" x="2"/>
         <item t="default"/>
       </items>
       <extLst>
@@ -6887,69 +6961,25 @@
     <field x="0"/>
     <field x="1"/>
   </rowFields>
-  <rowItems count="28">
+  <rowItems count="29">
     <i>
-      <x/>
-      <x v="59"/>
+      <x v="7"/>
+      <x v="111"/>
     </i>
     <i r="1">
-      <x v="60"/>
+      <x v="112"/>
     </i>
     <i r="1">
-      <x v="81"/>
-    </i>
-    <i r="1">
-      <x v="83"/>
-    </i>
-    <i r="1">
-      <x v="84"/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x v="43"/>
-    </i>
-    <i r="1">
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="3"/>
-      <x v="118"/>
-    </i>
-    <i r="1">
-      <x v="119"/>
-    </i>
-    <i r="1">
-      <x v="121"/>
-    </i>
-    <i r="1">
-      <x v="123"/>
-    </i>
-    <i>
-      <x v="4"/>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="5"/>
-      <x v="34"/>
-    </i>
-    <i r="1">
-      <x v="35"/>
-    </i>
-    <i r="1">
-      <x v="37"/>
-    </i>
-    <i r="1">
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="6"/>
-      <x v="89"/>
-    </i>
-    <i r="1">
-      <x v="90"/>
+      <x v="113"/>
     </i>
     <i>
       <x v="8"/>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
       <x v="9"/>
     </i>
     <i r="1">
@@ -6960,6 +6990,9 @@
     </i>
     <i>
       <x v="9"/>
+      <x v="23"/>
+    </i>
+    <i r="1">
       <x v="24"/>
     </i>
     <i r="1">
@@ -6970,14 +7003,55 @@
     </i>
     <i>
       <x v="10"/>
+      <x v="27"/>
+    </i>
+    <i r="1">
+      <x v="28"/>
+    </i>
+    <i r="1">
       <x v="29"/>
+    </i>
+    <i r="1">
+      <x v="30"/>
     </i>
     <i>
       <x v="11"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
       <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="12"/>
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="13"/>
+      <x v="51"/>
+    </i>
+    <i r="1">
+      <x v="52"/>
     </i>
     <i>
       <x v="14"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
       <x v="2"/>
     </i>
     <i t="grand">
@@ -7008,19 +7082,19 @@
     </i>
   </colItems>
   <pageFields count="1">
-    <pageField fld="4" item="0" hier="-1"/>
+    <pageField fld="4" item="2" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Quantidade de práticas por variável x dimensão" fld="1" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="13">
-    <format dxfId="12">
+    <format dxfId="25">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="24">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="4">
@@ -7032,16 +7106,16 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="21">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="20">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="4">
@@ -7053,26 +7127,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="17">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="16">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="15">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -7089,34 +7163,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{314DE7E5-717B-4233-B18B-8FCDA4F5122D}" name="Tab_Avaliação" displayName="Tab_Avaliação" ref="A6:F130" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{314DE7E5-717B-4233-B18B-8FCDA4F5122D}" name="Tab_Avaliação" displayName="Tab_Avaliação" ref="A6:F130" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:F130">
     <sortCondition ref="A7:A130"/>
     <sortCondition ref="C7:C130"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{0D5E3BF3-2467-42A7-807B-335D16B36209}" name="ID Variável" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{663687A5-4E2C-48B9-81F1-4C8F5C6E7C91}" name="Variável" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{0D28153F-94A5-44CB-8DB4-966314BF4C08}" name="ID" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{30CFBF58-C64A-47EF-A9AE-A29671ADB658}" name="Prática" dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{3ADC749A-E319-423B-85EC-8E2DCF27DDFB}" name="Dimensão" dataDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{BEB9B3A5-EA9F-43B8-BD62-7D2767B3DFBB}" name="Resposta" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{0D5E3BF3-2467-42A7-807B-335D16B36209}" name="ID Variável" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{663687A5-4E2C-48B9-81F1-4C8F5C6E7C91}" name="Variável" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{0D28153F-94A5-44CB-8DB4-966314BF4C08}" name="ID" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{30CFBF58-C64A-47EF-A9AE-A29671ADB658}" name="Prática" dataDxfId="40"/>
+    <tableColumn id="7" xr3:uid="{3ADC749A-E319-423B-85EC-8E2DCF27DDFB}" name="Dimensão" dataDxfId="39"/>
+    <tableColumn id="8" xr3:uid="{BEB9B3A5-EA9F-43B8-BD62-7D2767B3DFBB}" name="Resposta" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{90393050-5B02-4E3A-BBE5-EE4BC5573467}" name="Tabela3" displayName="Tabela3" ref="A3:D18" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{90393050-5B02-4E3A-BBE5-EE4BC5573467}" name="Tabela3" displayName="Tabela3" ref="A3:D18" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
   <tableColumns count="4">
-    <tableColumn id="2" xr3:uid="{759BF495-2BD2-4E20-95FE-625EF3BDF28D}" name="Variáveis" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{1FB1E02F-0F11-4DA1-B240-34E5109060B2}" name="QCI" dataDxfId="21">
+    <tableColumn id="2" xr3:uid="{759BF495-2BD2-4E20-95FE-625EF3BDF28D}" name="Variáveis" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{1FB1E02F-0F11-4DA1-B240-34E5109060B2}" name="QCI" dataDxfId="34">
       <calculatedColumnFormula>COUNTIFS(Tab_Avaliação[Variável],Detalhamento!A4,Tab_Avaliação[Resposta],"Sim")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{973858D6-8B70-46C8-969B-C168EBBA41A0}" name="QCR" dataDxfId="20">
+    <tableColumn id="4" xr3:uid="{973858D6-8B70-46C8-969B-C168EBBA41A0}" name="QCR" dataDxfId="33">
       <calculatedColumnFormula>COUNTIF(Tab_Avaliação[Variável],Detalhamento!A4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9FB9D8E9-555B-4EBA-AACD-5A3E624B71F1}" name="Grau de implementação" dataDxfId="19" dataCellStyle="Porcentagem">
+    <tableColumn id="5" xr3:uid="{9FB9D8E9-555B-4EBA-AACD-5A3E624B71F1}" name="Grau de implementação" dataDxfId="32" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>B4/C4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7125,16 +7199,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F7E5B365-901D-4226-AF9E-57BC7A736987}" name="Tabela36" displayName="Tabela36" ref="A25:D30" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F7E5B365-901D-4226-AF9E-57BC7A736987}" name="Tabela36" displayName="Tabela36" ref="A25:D30" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <tableColumns count="4">
-    <tableColumn id="2" xr3:uid="{02DBB198-5737-4CEA-AE00-F3FC5C1707FA}" name="Dimensões" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{1192E70A-4C71-483E-B328-910F1C36D1A5}" name="QCI" dataDxfId="15">
+    <tableColumn id="2" xr3:uid="{02DBB198-5737-4CEA-AE00-F3FC5C1707FA}" name="Dimensões" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{1192E70A-4C71-483E-B328-910F1C36D1A5}" name="QCI" dataDxfId="28">
       <calculatedColumnFormula>COUNTIFS(Tab_Avaliação[Dimensão],Detalhamento!A26,Tab_Avaliação[Resposta],"Sim")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{970E8B9A-7488-4727-B28C-DD2820B2264A}" name="QCR" dataDxfId="14">
+    <tableColumn id="4" xr3:uid="{970E8B9A-7488-4727-B28C-DD2820B2264A}" name="QCR" dataDxfId="27">
       <calculatedColumnFormula>COUNTIF(Tab_Avaliação[Dimensão],Detalhamento!A26)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F1FAFFF6-9F0F-4604-BC51-63422C4E0258}" name="Grau de implementação" dataDxfId="13" dataCellStyle="Porcentagem">
+    <tableColumn id="5" xr3:uid="{F1FAFFF6-9F0F-4604-BC51-63422C4E0258}" name="Grau de implementação" dataDxfId="26" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>B26/C26</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7433,13 +7507,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="62" t="s">
         <v>318</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="16"/>
@@ -9644,7 +9718,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:F8"/>
+      <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="25.5" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -9658,13 +9732,13 @@
   <sheetData>
     <row r="1" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="66" t="s">
         <v>338</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
     </row>
     <row r="3" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H3" s="4"/>
@@ -9730,41 +9804,41 @@
       <c r="B7" s="51" t="s">
         <v>305</v>
       </c>
-      <c r="C7" s="62">
+      <c r="C7" s="64">
         <f>IF(AND(Cálculo!C5="S",Cálculo!D5="N"),1,IF(AND(Cálculo!C5="S",Cálculo!D5="S",Cálculo!E5="N"),2,IF(AND(Cálculo!C5="S",Cálculo!D5="S",Cálculo!E5="S",Cálculo!F5="N"),3,IF(AND(Cálculo!C5="S",Cálculo!D5="S",Cálculo!E5="S",Cálculo!F5="S",Cálculo!G5="N"),4,IF(AND(Cálculo!C5="S",Cálculo!D5="S",Cálculo!E5="S",Cálculo!F5="S",Cálculo!G5="S"),5,0)))))</f>
         <v>0</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
     </row>
     <row r="8" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="27" t="s">
         <v>306</v>
       </c>
-      <c r="C8" s="63" t="str">
+      <c r="C8" s="65" t="str">
         <f>IF(C7=1,B5,IF(C7=2,C5,IF(C7=3,D5,IF(C7=4,E5,IF(C7=5,F5,"-")))))</f>
         <v>-</v>
       </c>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
     </row>
     <row r="9" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="27" t="s">
         <v>324</v>
       </c>
-      <c r="C9" s="61" t="str">
+      <c r="C9" s="63" t="str">
         <f>IF(C7=1,Cálculo!C3,IF(C7=2,Cálculo!D3,IF(C7=3,Cálculo!E3,IF(C7=4,Cálculo!F3,IF(C7=5,Cálculo!G3,Cálculo!B3)))))</f>
         <v>A organização não executou o conjunto recomendado de práticas necessárias a enquadrá-la em um nível mínimo de maturidade na execução dos processos de gestão de segurança da informação. Assim, recomenda-se que o relatório de gaps seja utilizado para orientar a organização na implementação de práticas de segurança recomendadas de acordo com cada variável do escopo de maturidade em gestão de segurança da informação e suas dimensões.</v>
       </c>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
     </row>
     <row r="10" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="45c5OUN7iTASl9LCBuogw5Deumayc3aJiieKEiWeHbEJ28zz5M72whOX9wEZD8bRS5IQ7dJ1ACIQ30ke5fOCiQ==" saltValue="4Ql32ubdOHdq+v4P9Xk0Ug==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xQ+y6I14xnAvmcsV1/NgZt1CegbXeHPBO3/kf7tRhl7Pop8TRxsW4gnSkPbMmmPupGzJCaRarf9jEyGknKfctw==" saltValue="sqsXLkaFX+I4zuaSBMrKXA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C7:F7"/>
@@ -9825,20 +9899,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="67" t="s">
         <v>321</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
     </row>
     <row r="2" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
@@ -10145,20 +10219,20 @@
       <c r="E22" s="14"/>
     </row>
     <row r="23" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="65" t="s">
+      <c r="A23" s="67" t="s">
         <v>320</v>
       </c>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="67"/>
     </row>
     <row r="24" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
@@ -10294,20 +10368,20 @@
       <c r="E34" s="14"/>
     </row>
     <row r="35" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="65" t="s">
+      <c r="A35" s="67" t="s">
         <v>335</v>
       </c>
-      <c r="B35" s="65"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="65"/>
-      <c r="J35" s="65"/>
-      <c r="K35" s="65"/>
-      <c r="L35" s="65"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="67"/>
     </row>
     <row r="36" spans="1:12" s="44" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="45"/>
@@ -10338,6 +10412,7 @@
     <row r="41" spans="1:12" s="44" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:12" s="44" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="DVdvf++6ZRk7cSGYi6hJnaLavI7fkZXn1PIj8RKlki7irVLRNOD7eXnOoZKR1ioA6N8YJDH02ixR/Ev/YO/NHw==" saltValue="64FUQkoqriajGOB/0Q8DDQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="3">
     <mergeCell ref="A35:L35"/>
     <mergeCell ref="A1:L1"/>
@@ -10365,13 +10440,13 @@
   <dimension ref="A1:I149"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="39" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
@@ -10384,15 +10459,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="67" t="s">
         <v>325</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
     </row>
     <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2"/>
@@ -10437,559 +10512,569 @@
         <v>330</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>260</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="60" t="s">
         <v>326</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
+      <c r="B8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="61" t="s">
         <v>265</v>
       </c>
-      <c r="D9" s="70" t="s">
+      <c r="D9" s="61" t="s">
         <v>266</v>
       </c>
-      <c r="E9" s="70" t="s">
+      <c r="E9" s="61" t="s">
         <v>267</v>
       </c>
-      <c r="F9" s="70" t="s">
+      <c r="F9" s="61" t="s">
         <v>264</v>
       </c>
-      <c r="G9" s="70" t="s">
+      <c r="G9" s="61" t="s">
         <v>263</v>
       </c>
-      <c r="H9" s="70" t="s">
+      <c r="H9" s="61" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="66" t="s">
-        <v>271</v>
+      <c r="A10" s="68" t="s">
+        <v>253</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="68">
+        <v>98</v>
+      </c>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70">
         <v>1</v>
       </c>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68">
+      <c r="H10" s="70">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="67" t="s">
-        <v>271</v>
+      <c r="A11" s="69" t="s">
+        <v>253</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68">
+        <v>99</v>
+      </c>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70">
         <v>1</v>
       </c>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68">
+      <c r="H11" s="70">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="67" t="s">
-        <v>271</v>
+      <c r="A12" s="69" t="s">
+        <v>253</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68">
+        <v>100</v>
+      </c>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70">
         <v>1</v>
       </c>
-      <c r="H12" s="68">
+      <c r="H12" s="70">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="67" t="s">
-        <v>271</v>
+      <c r="A13" s="68" t="s">
+        <v>249</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68">
+        <v>70</v>
+      </c>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70">
         <v>1</v>
       </c>
-      <c r="H13" s="68">
+      <c r="G13" s="70"/>
+      <c r="H13" s="70">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="67" t="s">
-        <v>271</v>
+      <c r="A14" s="69" t="s">
+        <v>249</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68">
+        <v>71</v>
+      </c>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70">
         <v>1</v>
       </c>
-      <c r="H14" s="68">
+      <c r="G14" s="70"/>
+      <c r="H14" s="70">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="66" t="s">
-        <v>247</v>
+      <c r="A15" s="69" t="s">
+        <v>249</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68">
+        <v>72</v>
+      </c>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70">
         <v>1</v>
       </c>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68">
+      <c r="G15" s="70"/>
+      <c r="H15" s="70">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="67" t="s">
-        <v>247</v>
+      <c r="A16" s="69" t="s">
+        <v>249</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68">
+        <v>73</v>
+      </c>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70">
         <v>1</v>
       </c>
-      <c r="H16" s="68">
+      <c r="G16" s="70"/>
+      <c r="H16" s="70">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="66" t="s">
-        <v>246</v>
+      <c r="A17" s="69" t="s">
+        <v>249</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68">
+        <v>74</v>
+      </c>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70">
         <v>1</v>
       </c>
-      <c r="H17" s="68">
+      <c r="G17" s="70"/>
+      <c r="H17" s="70">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
-        <v>246</v>
+      <c r="A18" s="68" t="s">
+        <v>256</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68">
+        <v>111</v>
+      </c>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70">
         <v>1</v>
       </c>
-      <c r="H18" s="68">
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="67" t="s">
-        <v>246</v>
+      <c r="A19" s="69" t="s">
+        <v>256</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68">
+        <v>112</v>
+      </c>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70">
         <v>1</v>
       </c>
-      <c r="H19" s="68">
+      <c r="H19" s="70">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="67" t="s">
-        <v>246</v>
+      <c r="A20" s="69" t="s">
+        <v>256</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68">
+        <v>113</v>
+      </c>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70">
         <v>1</v>
       </c>
-      <c r="H20" s="68">
+      <c r="H20" s="70">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="s">
-        <v>251</v>
+      <c r="A21" s="69" t="s">
+        <v>256</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68">
+        <v>114</v>
+      </c>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70">
         <v>1</v>
       </c>
-      <c r="H21" s="68">
+      <c r="H21" s="70">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="66" t="s">
-        <v>250</v>
+      <c r="A22" s="68" t="s">
+        <v>252</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68">
+        <v>91</v>
+      </c>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70">
         <v>1</v>
       </c>
-      <c r="H22" s="68">
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="67" t="s">
-        <v>250</v>
+      <c r="A23" s="69" t="s">
+        <v>252</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68">
+        <v>92</v>
+      </c>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70">
         <v>1</v>
       </c>
-      <c r="H23" s="68">
+      <c r="H23" s="70">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="67" t="s">
-        <v>250</v>
+      <c r="A24" s="69" t="s">
+        <v>252</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68">
+        <v>93</v>
+      </c>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70">
         <v>1</v>
       </c>
-      <c r="H24" s="68">
+      <c r="H24" s="70">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="67" t="s">
-        <v>250</v>
+      <c r="A25" s="69" t="s">
+        <v>252</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68">
+        <v>94</v>
+      </c>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70">
         <v>1</v>
       </c>
-      <c r="H25" s="68">
+      <c r="H25" s="70">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="66" t="s">
-        <v>254</v>
+      <c r="A26" s="68" t="s">
+        <v>255</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68">
+        <v>107</v>
+      </c>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70">
         <v>1</v>
       </c>
-      <c r="H26" s="68">
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="67" t="s">
-        <v>254</v>
+      <c r="A27" s="69" t="s">
+        <v>255</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68">
+        <v>108</v>
+      </c>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70">
         <v>1</v>
       </c>
-      <c r="H27" s="68">
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="66" t="s">
-        <v>249</v>
+      <c r="A28" s="69" t="s">
+        <v>255</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68">
+        <v>109</v>
+      </c>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70">
         <v>1</v>
       </c>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68">
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="67" t="s">
-        <v>249</v>
+      <c r="A29" s="69" t="s">
+        <v>255</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68">
+        <v>110</v>
+      </c>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70">
         <v>1</v>
       </c>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68">
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="67" t="s">
-        <v>249</v>
+      <c r="A30" s="68" t="s">
+        <v>257</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="68"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68">
+        <v>115</v>
+      </c>
+      <c r="C30" s="70">
         <v>1</v>
       </c>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68">
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="66" t="s">
-        <v>256</v>
+      <c r="A31" s="69" t="s">
+        <v>257</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="C31" s="68"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68">
+        <v>116</v>
+      </c>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70">
         <v>1</v>
       </c>
-      <c r="H31" s="68">
+      <c r="F31" s="70"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="70">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="67" t="s">
-        <v>256</v>
+      <c r="A32" s="69" t="s">
+        <v>257</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="C32" s="68"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68">
+        <v>117</v>
+      </c>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70">
         <v>1</v>
       </c>
-      <c r="H32" s="68">
+      <c r="F32" s="70"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="70">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="67" t="s">
-        <v>256</v>
+      <c r="A33" s="68" t="s">
+        <v>258</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="68">
+        <v>118</v>
+      </c>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70">
         <v>1</v>
       </c>
-      <c r="H33" s="68">
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="70"/>
+      <c r="H33" s="70">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="39" t="s">
-        <v>252</v>
+      <c r="A34" s="69" t="s">
+        <v>258</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="C34" s="68"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="68">
+        <v>119</v>
+      </c>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70">
         <v>1</v>
       </c>
-      <c r="H34" s="68">
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="70">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="39" t="s">
-        <v>255</v>
+      <c r="A35" s="68" t="s">
+        <v>287</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="C35" s="68"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="68">
+        <v>288</v>
+      </c>
+      <c r="C35" s="70"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="70">
         <v>1</v>
       </c>
-      <c r="F35" s="68"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="68">
+      <c r="H35" s="70">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="39" t="s">
+      <c r="A36" s="69" t="s">
         <v>287</v>
       </c>
       <c r="B36" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="C36" s="70"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="70">
+        <v>1</v>
+      </c>
+      <c r="H36" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="69" t="s">
+        <v>287</v>
+      </c>
+      <c r="B37" s="39" t="s">
         <v>290</v>
       </c>
-      <c r="C36" s="68"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="68">
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70">
         <v>1</v>
       </c>
-      <c r="H36" s="68">
+      <c r="H37" s="70">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="66" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="68" t="s">
         <v>319</v>
       </c>
-      <c r="B37" s="67"/>
-      <c r="C37" s="68">
+      <c r="B38" s="69"/>
+      <c r="C38" s="70">
         <v>1</v>
       </c>
-      <c r="D37" s="68">
+      <c r="D38" s="70">
         <v>1</v>
       </c>
-      <c r="E37" s="68">
-        <v>2</v>
-      </c>
-      <c r="F37" s="68">
-        <v>3</v>
-      </c>
-      <c r="G37" s="68">
-        <v>20</v>
-      </c>
-      <c r="H37" s="68">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38"/>
-      <c r="B38"/>
-      <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38"/>
-      <c r="F38"/>
+      <c r="E38" s="70">
+        <v>9</v>
+      </c>
+      <c r="F38" s="70">
+        <v>5</v>
+      </c>
+      <c r="G38" s="70">
+        <v>12</v>
+      </c>
+      <c r="H38" s="70">
+        <v>28</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39"/>
@@ -11177,16 +11262,17 @@
   <protectedRanges>
     <protectedRange sqref="B6" name="Gaps"/>
   </protectedRanges>
-  <mergeCells count="9">
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A20"/>
+  <mergeCells count="10">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A38:B38"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -11200,8 +11286,8 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11311,27 +11397,28 @@
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="9" t="str">
-        <f>IF(C4&gt;=0.9,"S","N")</f>
+        <f>IF(C4=1,"S","N")</f>
         <v>N</v>
       </c>
       <c r="D5" s="9" t="str">
-        <f>IF(D4&gt;=0.9,"S","N")</f>
+        <f>IF(D4=1,"S","N")</f>
         <v>N</v>
       </c>
       <c r="E5" s="9" t="str">
-        <f>IF(E4&gt;=0.9,"S","N")</f>
+        <f>IF(E4=1,"S","N")</f>
         <v>N</v>
       </c>
       <c r="F5" s="9" t="str">
-        <f>IF(F4&gt;=0.9,"S","N")</f>
+        <f>IF(F4=1,"S","N")</f>
         <v>N</v>
       </c>
       <c r="G5" s="9" t="str">
-        <f>IF(G4&gt;=0.9,"S","N")</f>
+        <f>IF(G4=1,"S","N")</f>
         <v>N</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="OXk6LRkEioU/TpBYeJmVJUlN74yErBoS7rGgSEbtlaIlKWxrsPbuIK03jyWiAhpQ46IUIpYAcO6a51xIgc3Khw==" saltValue="QTlNCIUQWcFF2kLKwCGr5g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="69" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
